--- a/CACAU SHOW 202191 RESUMIDA.xlsx
+++ b/CACAU SHOW 202191 RESUMIDA.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X572"/>
+  <dimension ref="A1:AB572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,26 @@
       </c>
       <c r="X1" s="5" t="inlineStr">
         <is>
+          <t>ROTA.9</t>
+        </is>
+      </c>
+      <c r="Y1" s="5" t="inlineStr">
+        <is>
+          <t>ROTA.10</t>
+        </is>
+      </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
+          <t>ROTA.11</t>
+        </is>
+      </c>
+      <c r="AA1" s="5" t="inlineStr">
+        <is>
+          <t>ROTA.12</t>
+        </is>
+      </c>
+      <c r="AB1" s="5" t="inlineStr">
+        <is>
           <t>ROTA</t>
         </is>
       </c>
@@ -677,6 +697,12 @@
       <c r="W2" t="n">
         <v>154</v>
       </c>
+      <c r="Y2" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -758,6 +784,12 @@
       <c r="W3" t="n">
         <v>191</v>
       </c>
+      <c r="Y3" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -839,6 +871,12 @@
       <c r="W4" t="n">
         <v>154</v>
       </c>
+      <c r="Y4" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -920,6 +958,12 @@
       <c r="W5" t="n">
         <v>191</v>
       </c>
+      <c r="Y5" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1001,6 +1045,12 @@
       <c r="W6" t="n">
         <v>154</v>
       </c>
+      <c r="Y6" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1082,6 +1132,12 @@
       <c r="W7" t="n">
         <v>154</v>
       </c>
+      <c r="Y7" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1163,6 +1219,12 @@
       <c r="W8" t="n">
         <v>191</v>
       </c>
+      <c r="Y8" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1244,6 +1306,12 @@
       <c r="W9" t="n">
         <v>191</v>
       </c>
+      <c r="Y9" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1325,6 +1393,12 @@
       <c r="W10" t="n">
         <v>191</v>
       </c>
+      <c r="Y10" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1406,6 +1480,12 @@
       <c r="W11" t="n">
         <v>191</v>
       </c>
+      <c r="Y11" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1487,6 +1567,12 @@
       <c r="W12" t="n">
         <v>154</v>
       </c>
+      <c r="Y12" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1568,6 +1654,12 @@
       <c r="W13" t="n">
         <v>191</v>
       </c>
+      <c r="Y13" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1649,6 +1741,12 @@
       <c r="W14" t="n">
         <v>151</v>
       </c>
+      <c r="Y14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1730,6 +1828,12 @@
       <c r="W15" t="n">
         <v>154</v>
       </c>
+      <c r="Y15" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1811,6 +1915,12 @@
       <c r="W16" t="n">
         <v>191</v>
       </c>
+      <c r="Y16" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1892,6 +2002,12 @@
       <c r="W17" t="n">
         <v>154</v>
       </c>
+      <c r="Y17" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1973,6 +2089,12 @@
       <c r="W18" t="n">
         <v>191</v>
       </c>
+      <c r="Y18" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2054,6 +2176,12 @@
       <c r="W19" t="n">
         <v>154</v>
       </c>
+      <c r="Y19" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2135,6 +2263,12 @@
       <c r="W20" t="n">
         <v>191</v>
       </c>
+      <c r="Y20" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2216,6 +2350,12 @@
       <c r="W21" t="n">
         <v>154</v>
       </c>
+      <c r="Y21" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2297,6 +2437,12 @@
       <c r="W22" t="n">
         <v>191</v>
       </c>
+      <c r="Y22" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2378,6 +2524,12 @@
       <c r="W23" t="n">
         <v>191</v>
       </c>
+      <c r="Y23" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2459,6 +2611,12 @@
       <c r="W24" t="n">
         <v>191</v>
       </c>
+      <c r="Y24" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2540,6 +2698,12 @@
       <c r="W25" t="n">
         <v>154</v>
       </c>
+      <c r="Y25" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2621,6 +2785,12 @@
       <c r="W26" t="n">
         <v>191</v>
       </c>
+      <c r="Y26" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2702,6 +2872,12 @@
       <c r="W27" t="n">
         <v>154</v>
       </c>
+      <c r="Y27" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2783,6 +2959,12 @@
       <c r="W28" t="n">
         <v>191</v>
       </c>
+      <c r="Y28" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2864,6 +3046,12 @@
       <c r="W29" t="n">
         <v>154</v>
       </c>
+      <c r="Y29" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2945,6 +3133,12 @@
       <c r="W30" t="n">
         <v>154</v>
       </c>
+      <c r="Y30" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3026,6 +3220,12 @@
       <c r="W31" t="n">
         <v>191</v>
       </c>
+      <c r="Y31" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3107,6 +3307,12 @@
       <c r="W32" t="n">
         <v>191</v>
       </c>
+      <c r="Y32" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3188,6 +3394,12 @@
       <c r="W33" t="n">
         <v>154</v>
       </c>
+      <c r="Y33" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3269,6 +3481,12 @@
       <c r="W34" t="n">
         <v>154</v>
       </c>
+      <c r="Y34" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3350,6 +3568,12 @@
       <c r="W35" t="n">
         <v>191</v>
       </c>
+      <c r="Y35" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3431,6 +3655,12 @@
       <c r="W36" t="n">
         <v>191</v>
       </c>
+      <c r="Y36" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3512,6 +3742,12 @@
       <c r="W37" t="n">
         <v>191</v>
       </c>
+      <c r="Y37" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3593,6 +3829,12 @@
       <c r="W38" t="n">
         <v>154</v>
       </c>
+      <c r="Y38" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3674,6 +3916,12 @@
       <c r="W39" t="n">
         <v>191</v>
       </c>
+      <c r="Y39" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3755,6 +4003,12 @@
       <c r="W40" t="n">
         <v>154</v>
       </c>
+      <c r="Y40" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3836,6 +4090,12 @@
       <c r="W41" t="n">
         <v>154</v>
       </c>
+      <c r="Y41" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3917,6 +4177,12 @@
       <c r="W42" t="n">
         <v>191</v>
       </c>
+      <c r="Y42" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3998,6 +4264,12 @@
       <c r="W43" t="n">
         <v>191</v>
       </c>
+      <c r="Y43" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4079,6 +4351,12 @@
       <c r="W44" t="n">
         <v>191</v>
       </c>
+      <c r="Y44" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4160,6 +4438,12 @@
       <c r="W45" t="n">
         <v>191</v>
       </c>
+      <c r="Y45" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4241,6 +4525,12 @@
       <c r="W46" t="n">
         <v>151</v>
       </c>
+      <c r="Y46" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4322,6 +4612,12 @@
       <c r="W47" t="n">
         <v>154</v>
       </c>
+      <c r="Y47" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4403,6 +4699,12 @@
       <c r="W48" t="n">
         <v>191</v>
       </c>
+      <c r="Y48" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4484,6 +4786,12 @@
       <c r="W49" t="n">
         <v>154</v>
       </c>
+      <c r="Y49" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4565,6 +4873,12 @@
       <c r="W50" t="n">
         <v>191</v>
       </c>
+      <c r="Y50" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4646,6 +4960,12 @@
       <c r="W51" t="n">
         <v>151</v>
       </c>
+      <c r="Y51" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4727,6 +5047,12 @@
       <c r="W52" t="n">
         <v>154</v>
       </c>
+      <c r="Y52" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4808,6 +5134,12 @@
       <c r="W53" t="n">
         <v>191</v>
       </c>
+      <c r="Y53" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4898,6 +5230,18 @@
       <c r="X54" t="n">
         <v>162</v>
       </c>
+      <c r="Y54" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4979,6 +5323,12 @@
       <c r="W55" t="n">
         <v>154</v>
       </c>
+      <c r="Y55" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5060,6 +5410,12 @@
       <c r="W56" t="n">
         <v>191</v>
       </c>
+      <c r="Y56" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5141,6 +5497,12 @@
       <c r="W57" t="n">
         <v>154</v>
       </c>
+      <c r="Y57" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5222,6 +5584,12 @@
       <c r="W58" t="n">
         <v>191</v>
       </c>
+      <c r="Y58" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5303,6 +5671,12 @@
       <c r="W59" t="n">
         <v>154</v>
       </c>
+      <c r="Y59" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5384,6 +5758,12 @@
       <c r="W60" t="n">
         <v>191</v>
       </c>
+      <c r="Y60" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5465,6 +5845,12 @@
       <c r="W61" t="n">
         <v>154</v>
       </c>
+      <c r="Y61" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5546,6 +5932,12 @@
       <c r="W62" t="n">
         <v>191</v>
       </c>
+      <c r="Y62" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5627,6 +6019,12 @@
       <c r="W63" t="n">
         <v>191</v>
       </c>
+      <c r="Y63" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5708,6 +6106,12 @@
       <c r="W64" t="n">
         <v>154</v>
       </c>
+      <c r="Y64" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5789,6 +6193,12 @@
       <c r="W65" t="n">
         <v>191</v>
       </c>
+      <c r="Y65" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5870,6 +6280,12 @@
       <c r="W66" t="n">
         <v>154</v>
       </c>
+      <c r="Y66" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5951,6 +6367,12 @@
       <c r="W67" t="n">
         <v>191</v>
       </c>
+      <c r="Y67" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6032,6 +6454,12 @@
       <c r="W68" t="n">
         <v>154</v>
       </c>
+      <c r="Y68" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -6113,6 +6541,12 @@
       <c r="W69" t="n">
         <v>191</v>
       </c>
+      <c r="Y69" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -6194,6 +6628,12 @@
       <c r="W70" t="n">
         <v>154</v>
       </c>
+      <c r="Y70" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -6275,6 +6715,12 @@
       <c r="W71" t="n">
         <v>191</v>
       </c>
+      <c r="Y71" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -6356,6 +6802,12 @@
       <c r="W72" t="n">
         <v>154</v>
       </c>
+      <c r="Y72" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -6437,6 +6889,12 @@
       <c r="W73" t="n">
         <v>191</v>
       </c>
+      <c r="Y73" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -6518,6 +6976,12 @@
       <c r="W74" t="n">
         <v>151</v>
       </c>
+      <c r="Y74" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -6599,6 +7063,12 @@
       <c r="W75" t="n">
         <v>154</v>
       </c>
+      <c r="Y75" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6680,6 +7150,12 @@
       <c r="W76" t="n">
         <v>191</v>
       </c>
+      <c r="Y76" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6770,6 +7246,18 @@
       <c r="X77" t="n">
         <v>150</v>
       </c>
+      <c r="Y77" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6851,6 +7339,12 @@
       <c r="W78" t="n">
         <v>154</v>
       </c>
+      <c r="Y78" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6932,6 +7426,12 @@
       <c r="W79" t="n">
         <v>191</v>
       </c>
+      <c r="Y79" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -7013,6 +7513,12 @@
       <c r="W80" t="n">
         <v>191</v>
       </c>
+      <c r="Y80" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -7094,6 +7600,12 @@
       <c r="W81" t="n">
         <v>154</v>
       </c>
+      <c r="Y81" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -7175,6 +7687,12 @@
       <c r="W82" t="n">
         <v>191</v>
       </c>
+      <c r="Y82" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -7256,6 +7774,12 @@
       <c r="W83" t="n">
         <v>154</v>
       </c>
+      <c r="Y83" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -7337,6 +7861,12 @@
       <c r="W84" t="n">
         <v>154</v>
       </c>
+      <c r="Y84" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -7418,6 +7948,12 @@
       <c r="W85" t="n">
         <v>191</v>
       </c>
+      <c r="Y85" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7499,6 +8035,12 @@
       <c r="W86" t="n">
         <v>191</v>
       </c>
+      <c r="Y86" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -7580,6 +8122,12 @@
       <c r="W87" t="n">
         <v>191</v>
       </c>
+      <c r="Y87" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -7661,6 +8209,12 @@
       <c r="W88" t="n">
         <v>191</v>
       </c>
+      <c r="Y88" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -7742,6 +8296,12 @@
       <c r="W89" t="n">
         <v>191</v>
       </c>
+      <c r="Y89" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7823,6 +8383,12 @@
       <c r="W90" t="n">
         <v>191</v>
       </c>
+      <c r="Y90" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7904,6 +8470,12 @@
       <c r="W91" t="n">
         <v>191</v>
       </c>
+      <c r="Y91" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7985,6 +8557,12 @@
       <c r="W92" t="n">
         <v>191</v>
       </c>
+      <c r="Y92" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -8066,6 +8644,12 @@
       <c r="W93" t="n">
         <v>154</v>
       </c>
+      <c r="Y93" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -8147,6 +8731,12 @@
       <c r="W94" t="n">
         <v>191</v>
       </c>
+      <c r="Y94" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -8228,6 +8818,12 @@
       <c r="W95" t="n">
         <v>154</v>
       </c>
+      <c r="Y95" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -8309,6 +8905,12 @@
       <c r="W96" t="n">
         <v>191</v>
       </c>
+      <c r="Y96" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8390,6 +8992,12 @@
       <c r="W97" t="n">
         <v>154</v>
       </c>
+      <c r="Y97" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -8471,6 +9079,12 @@
       <c r="W98" t="n">
         <v>191</v>
       </c>
+      <c r="Y98" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -8552,6 +9166,12 @@
       <c r="W99" t="n">
         <v>191</v>
       </c>
+      <c r="Y99" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -8633,6 +9253,12 @@
       <c r="W100" t="n">
         <v>154</v>
       </c>
+      <c r="Y100" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -8714,6 +9340,12 @@
       <c r="W101" t="n">
         <v>191</v>
       </c>
+      <c r="Y101" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -8795,6 +9427,12 @@
       <c r="W102" t="n">
         <v>154</v>
       </c>
+      <c r="Y102" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -8876,6 +9514,12 @@
       <c r="W103" t="n">
         <v>191</v>
       </c>
+      <c r="Y103" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -8957,6 +9601,12 @@
       <c r="W104" t="n">
         <v>154</v>
       </c>
+      <c r="Y104" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -9038,6 +9688,12 @@
       <c r="W105" t="n">
         <v>191</v>
       </c>
+      <c r="Y105" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -9119,6 +9775,12 @@
       <c r="W106" t="n">
         <v>154</v>
       </c>
+      <c r="Y106" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -9200,6 +9862,12 @@
       <c r="W107" t="n">
         <v>191</v>
       </c>
+      <c r="Y107" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -9281,6 +9949,12 @@
       <c r="W108" t="n">
         <v>151</v>
       </c>
+      <c r="Y108" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -9362,6 +10036,12 @@
       <c r="W109" t="n">
         <v>151</v>
       </c>
+      <c r="Y109" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -9443,6 +10123,12 @@
       <c r="W110" t="n">
         <v>154</v>
       </c>
+      <c r="Y110" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -9524,6 +10210,12 @@
       <c r="W111" t="n">
         <v>154</v>
       </c>
+      <c r="Y111" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -9605,6 +10297,12 @@
       <c r="W112" t="n">
         <v>191</v>
       </c>
+      <c r="Y112" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -9686,6 +10384,12 @@
       <c r="W113" t="n">
         <v>191</v>
       </c>
+      <c r="Y113" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -9767,6 +10471,12 @@
       <c r="W114" t="n">
         <v>154</v>
       </c>
+      <c r="Y114" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -9848,6 +10558,12 @@
       <c r="W115" t="n">
         <v>191</v>
       </c>
+      <c r="Y115" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -9929,6 +10645,12 @@
       <c r="W116" t="n">
         <v>154</v>
       </c>
+      <c r="Y116" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -10010,6 +10732,12 @@
       <c r="W117" t="n">
         <v>191</v>
       </c>
+      <c r="Y117" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -10091,6 +10819,12 @@
       <c r="W118" t="n">
         <v>154</v>
       </c>
+      <c r="Y118" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -10172,6 +10906,12 @@
       <c r="W119" t="n">
         <v>191</v>
       </c>
+      <c r="Y119" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -10253,6 +10993,12 @@
       <c r="W120" t="n">
         <v>154</v>
       </c>
+      <c r="Y120" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -10334,6 +11080,12 @@
       <c r="W121" t="n">
         <v>154</v>
       </c>
+      <c r="Y121" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -10415,6 +11167,12 @@
       <c r="W122" t="n">
         <v>191</v>
       </c>
+      <c r="Y122" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -10496,6 +11254,12 @@
       <c r="W123" t="n">
         <v>191</v>
       </c>
+      <c r="Y123" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -10577,6 +11341,12 @@
       <c r="W124" t="n">
         <v>191</v>
       </c>
+      <c r="Y124" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -10658,6 +11428,12 @@
       <c r="W125" t="n">
         <v>191</v>
       </c>
+      <c r="Y125" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -10739,6 +11515,12 @@
       <c r="W126" t="n">
         <v>154</v>
       </c>
+      <c r="Y126" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -10820,6 +11602,12 @@
       <c r="W127" t="n">
         <v>154</v>
       </c>
+      <c r="Y127" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -10901,6 +11689,12 @@
       <c r="W128" t="n">
         <v>191</v>
       </c>
+      <c r="Y128" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -10982,6 +11776,12 @@
       <c r="W129" t="n">
         <v>191</v>
       </c>
+      <c r="Y129" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -11072,6 +11872,18 @@
       <c r="X130" t="n">
         <v>150</v>
       </c>
+      <c r="Y130" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -11153,6 +11965,12 @@
       <c r="W131" t="n">
         <v>151</v>
       </c>
+      <c r="Y131" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -11234,6 +12052,12 @@
       <c r="W132" t="n">
         <v>154</v>
       </c>
+      <c r="Y132" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -11315,6 +12139,12 @@
       <c r="W133" t="n">
         <v>191</v>
       </c>
+      <c r="Y133" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -11405,6 +12235,18 @@
       <c r="X134" t="n">
         <v>162</v>
       </c>
+      <c r="Y134" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -11486,6 +12328,12 @@
       <c r="W135" t="n">
         <v>154</v>
       </c>
+      <c r="Y135" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -11567,6 +12415,12 @@
       <c r="W136" t="n">
         <v>154</v>
       </c>
+      <c r="Y136" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -11648,6 +12502,12 @@
       <c r="W137" t="n">
         <v>191</v>
       </c>
+      <c r="Y137" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -11729,6 +12589,12 @@
       <c r="W138" t="n">
         <v>191</v>
       </c>
+      <c r="Y138" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -11810,6 +12676,12 @@
       <c r="W139" t="n">
         <v>154</v>
       </c>
+      <c r="Y139" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -11891,6 +12763,12 @@
       <c r="W140" t="n">
         <v>191</v>
       </c>
+      <c r="Y140" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -11972,6 +12850,12 @@
       <c r="W141" t="n">
         <v>154</v>
       </c>
+      <c r="Y141" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -12053,6 +12937,12 @@
       <c r="W142" t="n">
         <v>191</v>
       </c>
+      <c r="Y142" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -12134,6 +13024,12 @@
       <c r="W143" t="n">
         <v>154</v>
       </c>
+      <c r="Y143" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -12215,6 +13111,12 @@
       <c r="W144" t="n">
         <v>191</v>
       </c>
+      <c r="Y144" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -12296,6 +13198,12 @@
       <c r="W145" t="n">
         <v>154</v>
       </c>
+      <c r="Y145" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -12377,6 +13285,12 @@
       <c r="W146" t="n">
         <v>191</v>
       </c>
+      <c r="Y146" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -12458,6 +13372,12 @@
       <c r="W147" t="n">
         <v>151</v>
       </c>
+      <c r="Y147" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -12539,6 +13459,12 @@
       <c r="W148" t="n">
         <v>151</v>
       </c>
+      <c r="Y148" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -12620,6 +13546,12 @@
       <c r="W149" t="n">
         <v>154</v>
       </c>
+      <c r="Y149" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -12701,6 +13633,12 @@
       <c r="W150" t="n">
         <v>154</v>
       </c>
+      <c r="Y150" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -12782,6 +13720,12 @@
       <c r="W151" t="n">
         <v>191</v>
       </c>
+      <c r="Y151" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -12863,6 +13807,12 @@
       <c r="W152" t="n">
         <v>191</v>
       </c>
+      <c r="Y152" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -12944,6 +13894,12 @@
       <c r="W153" t="n">
         <v>154</v>
       </c>
+      <c r="Y153" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -13025,6 +13981,12 @@
       <c r="W154" t="n">
         <v>191</v>
       </c>
+      <c r="Y154" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -13106,6 +14068,12 @@
       <c r="W155" t="n">
         <v>151</v>
       </c>
+      <c r="Y155" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -13187,6 +14155,12 @@
       <c r="W156" t="n">
         <v>154</v>
       </c>
+      <c r="Y156" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -13268,6 +14242,12 @@
       <c r="W157" t="n">
         <v>191</v>
       </c>
+      <c r="Y157" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -13349,6 +14329,12 @@
       <c r="W158" t="n">
         <v>154</v>
       </c>
+      <c r="Y158" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -13430,6 +14416,12 @@
       <c r="W159" t="n">
         <v>191</v>
       </c>
+      <c r="Y159" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -13511,6 +14503,12 @@
       <c r="W160" t="n">
         <v>154</v>
       </c>
+      <c r="Y160" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -13592,6 +14590,12 @@
       <c r="W161" t="n">
         <v>191</v>
       </c>
+      <c r="Y161" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -13673,6 +14677,12 @@
       <c r="W162" t="n">
         <v>154</v>
       </c>
+      <c r="Y162" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -13754,6 +14764,12 @@
       <c r="W163" t="n">
         <v>191</v>
       </c>
+      <c r="Y163" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -13835,6 +14851,12 @@
       <c r="W164" t="n">
         <v>154</v>
       </c>
+      <c r="Y164" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -13916,6 +14938,12 @@
       <c r="W165" t="n">
         <v>191</v>
       </c>
+      <c r="Y165" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -13997,6 +15025,12 @@
       <c r="W166" t="n">
         <v>154</v>
       </c>
+      <c r="Y166" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -14078,6 +15112,12 @@
       <c r="W167" t="n">
         <v>191</v>
       </c>
+      <c r="Y167" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -14159,6 +15199,12 @@
       <c r="W168" t="n">
         <v>191</v>
       </c>
+      <c r="Y168" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -14249,6 +15295,18 @@
       <c r="X169" t="n">
         <v>150</v>
       </c>
+      <c r="Y169" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -14330,6 +15388,12 @@
       <c r="W170" t="n">
         <v>151</v>
       </c>
+      <c r="Y170" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -14411,6 +15475,12 @@
       <c r="W171" t="n">
         <v>191</v>
       </c>
+      <c r="Y171" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -14501,6 +15571,18 @@
       <c r="X172" t="n">
         <v>162</v>
       </c>
+      <c r="Y172" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -14582,6 +15664,12 @@
       <c r="W173" t="n">
         <v>151</v>
       </c>
+      <c r="Y173" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -14663,6 +15751,12 @@
       <c r="W174" t="n">
         <v>191</v>
       </c>
+      <c r="Y174" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -14753,6 +15847,18 @@
       <c r="X175" t="n">
         <v>162</v>
       </c>
+      <c r="Y175" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -14834,6 +15940,12 @@
       <c r="W176" t="n">
         <v>191</v>
       </c>
+      <c r="Y176" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -14915,6 +16027,12 @@
       <c r="W177" t="n">
         <v>191</v>
       </c>
+      <c r="Y177" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -14996,6 +16114,12 @@
       <c r="W178" t="n">
         <v>191</v>
       </c>
+      <c r="Y178" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -15077,6 +16201,12 @@
       <c r="W179" t="n">
         <v>191</v>
       </c>
+      <c r="Y179" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -15158,6 +16288,12 @@
       <c r="W180" t="n">
         <v>191</v>
       </c>
+      <c r="Y180" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -15239,6 +16375,12 @@
       <c r="W181" t="n">
         <v>191</v>
       </c>
+      <c r="Y181" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -15320,6 +16462,12 @@
       <c r="W182" t="n">
         <v>191</v>
       </c>
+      <c r="Y182" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -15401,6 +16549,12 @@
       <c r="W183" t="n">
         <v>191</v>
       </c>
+      <c r="Y183" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -15482,6 +16636,12 @@
       <c r="W184" t="n">
         <v>154</v>
       </c>
+      <c r="Y184" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -15563,6 +16723,12 @@
       <c r="W185" t="n">
         <v>191</v>
       </c>
+      <c r="Y185" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -15644,6 +16810,12 @@
       <c r="W186" t="n">
         <v>191</v>
       </c>
+      <c r="Y186" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -15725,6 +16897,12 @@
       <c r="W187" t="n">
         <v>191</v>
       </c>
+      <c r="Y187" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -15806,6 +16984,12 @@
       <c r="W188" t="n">
         <v>154</v>
       </c>
+      <c r="Y188" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -15887,6 +17071,12 @@
       <c r="W189" t="n">
         <v>191</v>
       </c>
+      <c r="Y189" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -15968,6 +17158,12 @@
       <c r="W190" t="n">
         <v>151</v>
       </c>
+      <c r="Y190" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -16049,6 +17245,12 @@
       <c r="W191" t="n">
         <v>191</v>
       </c>
+      <c r="Y191" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -16130,6 +17332,12 @@
       <c r="W192" t="n">
         <v>191</v>
       </c>
+      <c r="Y192" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -16211,6 +17419,12 @@
       <c r="W193" t="n">
         <v>191</v>
       </c>
+      <c r="Y193" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -16292,6 +17506,12 @@
       <c r="W194" t="n">
         <v>191</v>
       </c>
+      <c r="Y194" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -16373,6 +17593,12 @@
       <c r="W195" t="n">
         <v>191</v>
       </c>
+      <c r="Y195" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -16454,6 +17680,12 @@
       <c r="W196" t="n">
         <v>191</v>
       </c>
+      <c r="Y196" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -16535,6 +17767,12 @@
       <c r="W197" t="n">
         <v>154</v>
       </c>
+      <c r="Y197" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -16616,6 +17854,12 @@
       <c r="W198" t="n">
         <v>191</v>
       </c>
+      <c r="Y198" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -16697,6 +17941,12 @@
       <c r="W199" t="n">
         <v>191</v>
       </c>
+      <c r="Y199" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -16778,6 +18028,12 @@
       <c r="W200" t="n">
         <v>191</v>
       </c>
+      <c r="Y200" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -16859,6 +18115,12 @@
       <c r="W201" t="n">
         <v>191</v>
       </c>
+      <c r="Y201" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -16940,6 +18202,12 @@
       <c r="W202" t="n">
         <v>191</v>
       </c>
+      <c r="Y202" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -17021,6 +18289,12 @@
       <c r="W203" t="n">
         <v>191</v>
       </c>
+      <c r="Y203" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -17102,6 +18376,12 @@
       <c r="W204" t="n">
         <v>151</v>
       </c>
+      <c r="Y204" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -17183,6 +18463,12 @@
       <c r="W205" t="n">
         <v>191</v>
       </c>
+      <c r="Y205" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -17264,6 +18550,12 @@
       <c r="W206" t="n">
         <v>151</v>
       </c>
+      <c r="Y206" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -17345,6 +18637,12 @@
       <c r="W207" t="n">
         <v>191</v>
       </c>
+      <c r="Y207" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -17426,6 +18724,12 @@
       <c r="W208" t="n">
         <v>191</v>
       </c>
+      <c r="Y208" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -17507,6 +18811,12 @@
       <c r="W209" t="n">
         <v>191</v>
       </c>
+      <c r="Y209" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -17588,6 +18898,12 @@
       <c r="W210" t="n">
         <v>191</v>
       </c>
+      <c r="Y210" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -17669,6 +18985,12 @@
       <c r="W211" t="n">
         <v>191</v>
       </c>
+      <c r="Y211" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -17750,6 +19072,12 @@
       <c r="W212" t="n">
         <v>191</v>
       </c>
+      <c r="Y212" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -17831,6 +19159,12 @@
       <c r="W213" t="n">
         <v>191</v>
       </c>
+      <c r="Y213" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -17912,6 +19246,12 @@
       <c r="W214" t="n">
         <v>191</v>
       </c>
+      <c r="Y214" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -17993,6 +19333,12 @@
       <c r="W215" t="n">
         <v>191</v>
       </c>
+      <c r="Y215" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -18074,6 +19420,12 @@
       <c r="W216" t="n">
         <v>151</v>
       </c>
+      <c r="Y216" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -18155,6 +19507,12 @@
       <c r="W217" t="n">
         <v>191</v>
       </c>
+      <c r="Y217" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -18236,6 +19594,12 @@
       <c r="W218" t="n">
         <v>191</v>
       </c>
+      <c r="Y218" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -18317,6 +19681,12 @@
       <c r="W219" t="n">
         <v>191</v>
       </c>
+      <c r="Y219" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -18398,6 +19768,12 @@
       <c r="W220" t="n">
         <v>191</v>
       </c>
+      <c r="Y220" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -18479,6 +19855,12 @@
       <c r="W221" t="n">
         <v>151</v>
       </c>
+      <c r="Y221" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -18560,6 +19942,12 @@
       <c r="W222" t="n">
         <v>191</v>
       </c>
+      <c r="Y222" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -18650,6 +20038,18 @@
       <c r="X223" t="n">
         <v>150</v>
       </c>
+      <c r="Y223" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -18731,6 +20131,12 @@
       <c r="W224" t="n">
         <v>191</v>
       </c>
+      <c r="Y224" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -18812,6 +20218,12 @@
       <c r="W225" t="n">
         <v>191</v>
       </c>
+      <c r="Y225" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -18893,6 +20305,12 @@
       <c r="W226" t="n">
         <v>154</v>
       </c>
+      <c r="Y226" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -18974,6 +20392,12 @@
       <c r="W227" t="n">
         <v>191</v>
       </c>
+      <c r="Y227" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -19055,6 +20479,12 @@
       <c r="W228" t="n">
         <v>191</v>
       </c>
+      <c r="Y228" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -19136,6 +20566,12 @@
       <c r="W229" t="n">
         <v>191</v>
       </c>
+      <c r="Y229" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -19217,6 +20653,12 @@
       <c r="W230" t="n">
         <v>191</v>
       </c>
+      <c r="Y230" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -19298,6 +20740,12 @@
       <c r="W231" t="n">
         <v>191</v>
       </c>
+      <c r="Y231" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -19379,6 +20827,12 @@
       <c r="W232" t="n">
         <v>191</v>
       </c>
+      <c r="Y232" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -19460,6 +20914,12 @@
       <c r="W233" t="n">
         <v>191</v>
       </c>
+      <c r="Y233" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -19541,6 +21001,12 @@
       <c r="W234" t="n">
         <v>191</v>
       </c>
+      <c r="Y234" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -19622,6 +21088,12 @@
       <c r="W235" t="n">
         <v>154</v>
       </c>
+      <c r="Y235" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -19703,6 +21175,12 @@
       <c r="W236" t="n">
         <v>154</v>
       </c>
+      <c r="Y236" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -19784,6 +21262,12 @@
       <c r="W237" t="n">
         <v>191</v>
       </c>
+      <c r="Y237" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -19865,6 +21349,12 @@
       <c r="W238" t="n">
         <v>191</v>
       </c>
+      <c r="Y238" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -19946,6 +21436,12 @@
       <c r="W239" t="n">
         <v>191</v>
       </c>
+      <c r="Y239" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -20027,6 +21523,12 @@
       <c r="W240" t="n">
         <v>191</v>
       </c>
+      <c r="Y240" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -20108,6 +21610,12 @@
       <c r="W241" t="n">
         <v>191</v>
       </c>
+      <c r="Y241" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -20189,6 +21697,12 @@
       <c r="W242" t="n">
         <v>191</v>
       </c>
+      <c r="Y242" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -20270,6 +21784,12 @@
       <c r="W243" t="n">
         <v>191</v>
       </c>
+      <c r="Y243" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -20351,6 +21871,12 @@
       <c r="W244" t="n">
         <v>191</v>
       </c>
+      <c r="Y244" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -20432,6 +21958,12 @@
       <c r="W245" t="n">
         <v>151</v>
       </c>
+      <c r="Y245" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -20513,6 +22045,12 @@
       <c r="W246" t="n">
         <v>191</v>
       </c>
+      <c r="Y246" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -20594,6 +22132,12 @@
       <c r="W247" t="n">
         <v>154</v>
       </c>
+      <c r="Y247" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -20675,6 +22219,12 @@
       <c r="W248" t="n">
         <v>154</v>
       </c>
+      <c r="Y248" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -20756,6 +22306,12 @@
       <c r="W249" t="n">
         <v>191</v>
       </c>
+      <c r="Y249" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -20837,6 +22393,12 @@
       <c r="W250" t="n">
         <v>191</v>
       </c>
+      <c r="Y250" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -20918,6 +22480,12 @@
       <c r="W251" t="n">
         <v>191</v>
       </c>
+      <c r="Y251" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -20999,6 +22567,12 @@
       <c r="W252" t="n">
         <v>191</v>
       </c>
+      <c r="Y252" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -21080,6 +22654,12 @@
       <c r="W253" t="n">
         <v>154</v>
       </c>
+      <c r="Y253" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -21161,6 +22741,12 @@
       <c r="W254" t="n">
         <v>191</v>
       </c>
+      <c r="Y254" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -21242,6 +22828,12 @@
       <c r="W255" t="n">
         <v>154</v>
       </c>
+      <c r="Y255" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -21323,6 +22915,12 @@
       <c r="W256" t="n">
         <v>154</v>
       </c>
+      <c r="Y256" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -21404,6 +23002,12 @@
       <c r="W257" t="n">
         <v>191</v>
       </c>
+      <c r="Y257" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -21485,6 +23089,12 @@
       <c r="W258" t="n">
         <v>191</v>
       </c>
+      <c r="Y258" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -21566,6 +23176,12 @@
       <c r="W259" t="n">
         <v>191</v>
       </c>
+      <c r="Y259" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -21647,6 +23263,12 @@
       <c r="W260" t="n">
         <v>191</v>
       </c>
+      <c r="Y260" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -21728,6 +23350,12 @@
       <c r="W261" t="n">
         <v>154</v>
       </c>
+      <c r="Y261" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -21809,6 +23437,12 @@
       <c r="W262" t="n">
         <v>191</v>
       </c>
+      <c r="Y262" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -21890,6 +23524,12 @@
       <c r="W263" t="n">
         <v>191</v>
       </c>
+      <c r="Y263" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -21971,6 +23611,12 @@
       <c r="W264" t="n">
         <v>151</v>
       </c>
+      <c r="Y264" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -22052,6 +23698,12 @@
       <c r="W265" t="n">
         <v>154</v>
       </c>
+      <c r="Y265" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -22133,6 +23785,12 @@
       <c r="W266" t="n">
         <v>191</v>
       </c>
+      <c r="Y266" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -22214,6 +23872,12 @@
       <c r="W267" t="n">
         <v>154</v>
       </c>
+      <c r="Y267" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -22295,6 +23959,12 @@
       <c r="W268" t="n">
         <v>191</v>
       </c>
+      <c r="Y268" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -22376,6 +24046,12 @@
       <c r="W269" t="n">
         <v>154</v>
       </c>
+      <c r="Y269" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -22457,6 +24133,12 @@
       <c r="W270" t="n">
         <v>191</v>
       </c>
+      <c r="Y270" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -22538,6 +24220,12 @@
       <c r="W271" t="n">
         <v>154</v>
       </c>
+      <c r="Y271" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -22619,6 +24307,12 @@
       <c r="W272" t="n">
         <v>191</v>
       </c>
+      <c r="Y272" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -22700,6 +24394,12 @@
       <c r="W273" t="n">
         <v>191</v>
       </c>
+      <c r="Y273" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -22781,6 +24481,12 @@
       <c r="W274" t="n">
         <v>191</v>
       </c>
+      <c r="Y274" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -22862,6 +24568,12 @@
       <c r="W275" t="n">
         <v>191</v>
       </c>
+      <c r="Y275" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -22943,6 +24655,12 @@
       <c r="W276" t="n">
         <v>191</v>
       </c>
+      <c r="Y276" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -23024,6 +24742,12 @@
       <c r="W277" t="n">
         <v>151</v>
       </c>
+      <c r="Y277" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -23105,6 +24829,12 @@
       <c r="W278" t="n">
         <v>151</v>
       </c>
+      <c r="Y278" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -23186,6 +24916,12 @@
       <c r="W279" t="n">
         <v>154</v>
       </c>
+      <c r="Y279" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -23267,6 +25003,12 @@
       <c r="W280" t="n">
         <v>154</v>
       </c>
+      <c r="Y280" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -23348,6 +25090,12 @@
       <c r="W281" t="n">
         <v>191</v>
       </c>
+      <c r="Y281" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -23429,6 +25177,12 @@
       <c r="W282" t="n">
         <v>191</v>
       </c>
+      <c r="Y282" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -23510,6 +25264,12 @@
       <c r="W283" t="n">
         <v>191</v>
       </c>
+      <c r="Y283" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -23591,6 +25351,12 @@
       <c r="W284" t="n">
         <v>191</v>
       </c>
+      <c r="Y284" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -23672,6 +25438,12 @@
       <c r="W285" t="n">
         <v>151</v>
       </c>
+      <c r="Y285" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -23753,6 +25525,12 @@
       <c r="W286" t="n">
         <v>191</v>
       </c>
+      <c r="Y286" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -23834,6 +25612,12 @@
       <c r="W287" t="n">
         <v>191</v>
       </c>
+      <c r="Y287" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -23915,6 +25699,12 @@
       <c r="W288" t="n">
         <v>154</v>
       </c>
+      <c r="Y288" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -23996,6 +25786,12 @@
       <c r="W289" t="n">
         <v>191</v>
       </c>
+      <c r="Y289" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -24077,6 +25873,12 @@
       <c r="W290" t="n">
         <v>191</v>
       </c>
+      <c r="Y290" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -24158,6 +25960,12 @@
       <c r="W291" t="n">
         <v>154</v>
       </c>
+      <c r="Y291" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -24239,6 +26047,12 @@
       <c r="W292" t="n">
         <v>191</v>
       </c>
+      <c r="Y292" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -24320,6 +26134,12 @@
       <c r="W293" t="n">
         <v>191</v>
       </c>
+      <c r="Y293" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -24401,6 +26221,12 @@
       <c r="W294" t="n">
         <v>191</v>
       </c>
+      <c r="Y294" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -24482,6 +26308,12 @@
       <c r="W295" t="n">
         <v>191</v>
       </c>
+      <c r="Y295" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -24563,6 +26395,12 @@
       <c r="W296" t="n">
         <v>191</v>
       </c>
+      <c r="Y296" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -24644,6 +26482,12 @@
       <c r="W297" t="n">
         <v>191</v>
       </c>
+      <c r="Y297" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -24725,6 +26569,12 @@
       <c r="W298" t="n">
         <v>151</v>
       </c>
+      <c r="Y298" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -24806,6 +26656,12 @@
       <c r="W299" t="n">
         <v>191</v>
       </c>
+      <c r="Y299" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -24896,6 +26752,18 @@
       <c r="X300" t="n">
         <v>162</v>
       </c>
+      <c r="Y300" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -24977,6 +26845,12 @@
       <c r="W301" t="n">
         <v>191</v>
       </c>
+      <c r="Y301" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -25058,6 +26932,12 @@
       <c r="W302" t="n">
         <v>154</v>
       </c>
+      <c r="Y302" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -25139,6 +27019,12 @@
       <c r="W303" t="n">
         <v>154</v>
       </c>
+      <c r="Y303" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -25220,6 +27106,12 @@
       <c r="W304" t="n">
         <v>191</v>
       </c>
+      <c r="Y304" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -25301,6 +27193,12 @@
       <c r="W305" t="n">
         <v>191</v>
       </c>
+      <c r="Y305" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -25382,6 +27280,12 @@
       <c r="W306" t="n">
         <v>191</v>
       </c>
+      <c r="Y306" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -25463,6 +27367,12 @@
       <c r="W307" t="n">
         <v>191</v>
       </c>
+      <c r="Y307" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -25544,6 +27454,12 @@
       <c r="W308" t="n">
         <v>154</v>
       </c>
+      <c r="Y308" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -25625,6 +27541,12 @@
       <c r="W309" t="n">
         <v>191</v>
       </c>
+      <c r="Y309" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -25706,6 +27628,12 @@
       <c r="W310" t="n">
         <v>154</v>
       </c>
+      <c r="Y310" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -25787,6 +27715,12 @@
       <c r="W311" t="n">
         <v>154</v>
       </c>
+      <c r="Y311" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -25868,6 +27802,12 @@
       <c r="W312" t="n">
         <v>191</v>
       </c>
+      <c r="Y312" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -25949,6 +27889,12 @@
       <c r="W313" t="n">
         <v>191</v>
       </c>
+      <c r="Y313" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -26030,6 +27976,12 @@
       <c r="W314" t="n">
         <v>191</v>
       </c>
+      <c r="Y314" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -26111,6 +28063,12 @@
       <c r="W315" t="n">
         <v>191</v>
       </c>
+      <c r="Y315" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -26192,6 +28150,12 @@
       <c r="W316" t="n">
         <v>154</v>
       </c>
+      <c r="Y316" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -26273,6 +28237,12 @@
       <c r="W317" t="n">
         <v>191</v>
       </c>
+      <c r="Y317" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -26354,6 +28324,12 @@
       <c r="W318" t="n">
         <v>191</v>
       </c>
+      <c r="Y318" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -26435,6 +28411,12 @@
       <c r="W319" t="n">
         <v>191</v>
       </c>
+      <c r="Y319" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -26516,6 +28498,12 @@
       <c r="W320" t="n">
         <v>191</v>
       </c>
+      <c r="Y320" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -26597,6 +28585,12 @@
       <c r="W321" t="n">
         <v>191</v>
       </c>
+      <c r="Y321" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -26678,6 +28672,12 @@
       <c r="W322" t="n">
         <v>191</v>
       </c>
+      <c r="Y322" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -26759,6 +28759,12 @@
       <c r="W323" t="n">
         <v>191</v>
       </c>
+      <c r="Y323" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -26840,6 +28846,12 @@
       <c r="W324" t="n">
         <v>191</v>
       </c>
+      <c r="Y324" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -26921,6 +28933,12 @@
       <c r="W325" t="n">
         <v>191</v>
       </c>
+      <c r="Y325" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -27002,6 +29020,12 @@
       <c r="W326" t="n">
         <v>191</v>
       </c>
+      <c r="Y326" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -27083,6 +29107,12 @@
       <c r="W327" t="n">
         <v>191</v>
       </c>
+      <c r="Y327" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -27164,6 +29194,12 @@
       <c r="W328" t="n">
         <v>151</v>
       </c>
+      <c r="Y328" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -27245,6 +29281,12 @@
       <c r="W329" t="n">
         <v>191</v>
       </c>
+      <c r="Y329" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -27326,6 +29368,12 @@
       <c r="W330" t="n">
         <v>154</v>
       </c>
+      <c r="Y330" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -27407,6 +29455,12 @@
       <c r="W331" t="n">
         <v>154</v>
       </c>
+      <c r="Y331" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -27488,6 +29542,12 @@
       <c r="W332" t="n">
         <v>191</v>
       </c>
+      <c r="Y332" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -27569,6 +29629,12 @@
       <c r="W333" t="n">
         <v>191</v>
       </c>
+      <c r="Y333" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -27650,6 +29716,12 @@
       <c r="W334" t="n">
         <v>191</v>
       </c>
+      <c r="Y334" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -27731,6 +29803,12 @@
       <c r="W335" t="n">
         <v>191</v>
       </c>
+      <c r="Y335" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -27812,6 +29890,12 @@
       <c r="W336" t="n">
         <v>154</v>
       </c>
+      <c r="Y336" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -27893,6 +29977,12 @@
       <c r="W337" t="n">
         <v>191</v>
       </c>
+      <c r="Y337" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -27974,6 +30064,12 @@
       <c r="W338" t="n">
         <v>154</v>
       </c>
+      <c r="Y338" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -28055,6 +30151,12 @@
       <c r="W339" t="n">
         <v>191</v>
       </c>
+      <c r="Y339" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -28136,6 +30238,12 @@
       <c r="W340" t="n">
         <v>151</v>
       </c>
+      <c r="Y340" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -28217,6 +30325,12 @@
       <c r="W341" t="n">
         <v>154</v>
       </c>
+      <c r="Y341" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -28298,6 +30412,12 @@
       <c r="W342" t="n">
         <v>191</v>
       </c>
+      <c r="Y342" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -28379,6 +30499,12 @@
       <c r="W343" t="n">
         <v>154</v>
       </c>
+      <c r="Y343" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -28460,6 +30586,12 @@
       <c r="W344" t="n">
         <v>154</v>
       </c>
+      <c r="Y344" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -28541,6 +30673,12 @@
       <c r="W345" t="n">
         <v>191</v>
       </c>
+      <c r="Y345" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -28622,6 +30760,12 @@
       <c r="W346" t="n">
         <v>191</v>
       </c>
+      <c r="Y346" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -28703,6 +30847,12 @@
       <c r="W347" t="n">
         <v>191</v>
       </c>
+      <c r="Y347" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -28784,6 +30934,12 @@
       <c r="W348" t="n">
         <v>191</v>
       </c>
+      <c r="Y348" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -28865,6 +31021,12 @@
       <c r="W349" t="n">
         <v>191</v>
       </c>
+      <c r="Y349" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -28946,6 +31108,12 @@
       <c r="W350" t="n">
         <v>191</v>
       </c>
+      <c r="Y350" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -29027,6 +31195,12 @@
       <c r="W351" t="n">
         <v>191</v>
       </c>
+      <c r="Y351" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -29108,6 +31282,12 @@
       <c r="W352" t="n">
         <v>191</v>
       </c>
+      <c r="Y352" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -29189,6 +31369,12 @@
       <c r="W353" t="n">
         <v>191</v>
       </c>
+      <c r="Y353" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -29270,6 +31456,12 @@
       <c r="W354" t="n">
         <v>154</v>
       </c>
+      <c r="Y354" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -29351,6 +31543,12 @@
       <c r="W355" t="n">
         <v>191</v>
       </c>
+      <c r="Y355" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -29432,6 +31630,12 @@
       <c r="W356" t="n">
         <v>154</v>
       </c>
+      <c r="Y356" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -29513,6 +31717,12 @@
       <c r="W357" t="n">
         <v>191</v>
       </c>
+      <c r="Y357" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -29594,6 +31804,12 @@
       <c r="W358" t="n">
         <v>154</v>
       </c>
+      <c r="Y358" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -29675,6 +31891,12 @@
       <c r="W359" t="n">
         <v>191</v>
       </c>
+      <c r="Y359" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -29756,6 +31978,12 @@
       <c r="W360" t="n">
         <v>154</v>
       </c>
+      <c r="Y360" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA360" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -29837,6 +32065,12 @@
       <c r="W361" t="n">
         <v>191</v>
       </c>
+      <c r="Y361" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA361" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -29918,6 +32152,12 @@
       <c r="W362" t="n">
         <v>154</v>
       </c>
+      <c r="Y362" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA362" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -29999,6 +32239,12 @@
       <c r="W363" t="n">
         <v>191</v>
       </c>
+      <c r="Y363" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -30080,6 +32326,12 @@
       <c r="W364" t="n">
         <v>154</v>
       </c>
+      <c r="Y364" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -30161,6 +32413,12 @@
       <c r="W365" t="n">
         <v>191</v>
       </c>
+      <c r="Y365" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -30242,6 +32500,12 @@
       <c r="W366" t="n">
         <v>154</v>
       </c>
+      <c r="Y366" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -30323,6 +32587,12 @@
       <c r="W367" t="n">
         <v>191</v>
       </c>
+      <c r="Y367" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA367" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -30404,6 +32674,12 @@
       <c r="W368" t="n">
         <v>154</v>
       </c>
+      <c r="Y368" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA368" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -30485,6 +32761,12 @@
       <c r="W369" t="n">
         <v>191</v>
       </c>
+      <c r="Y369" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA369" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -30566,6 +32848,12 @@
       <c r="W370" t="n">
         <v>154</v>
       </c>
+      <c r="Y370" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA370" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -30647,6 +32935,12 @@
       <c r="W371" t="n">
         <v>191</v>
       </c>
+      <c r="Y371" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -30728,6 +33022,12 @@
       <c r="W372" t="n">
         <v>154</v>
       </c>
+      <c r="Y372" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA372" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -30809,6 +33109,12 @@
       <c r="W373" t="n">
         <v>191</v>
       </c>
+      <c r="Y373" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA373" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -30890,6 +33196,12 @@
       <c r="W374" t="n">
         <v>154</v>
       </c>
+      <c r="Y374" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -30971,6 +33283,12 @@
       <c r="W375" t="n">
         <v>191</v>
       </c>
+      <c r="Y375" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -31052,6 +33370,12 @@
       <c r="W376" t="n">
         <v>154</v>
       </c>
+      <c r="Y376" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -31133,6 +33457,12 @@
       <c r="W377" t="n">
         <v>191</v>
       </c>
+      <c r="Y377" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA377" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -31214,6 +33544,12 @@
       <c r="W378" t="n">
         <v>154</v>
       </c>
+      <c r="Y378" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -31295,6 +33631,12 @@
       <c r="W379" t="n">
         <v>191</v>
       </c>
+      <c r="Y379" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -31376,6 +33718,12 @@
       <c r="W380" t="n">
         <v>154</v>
       </c>
+      <c r="Y380" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA380" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -31457,6 +33805,12 @@
       <c r="W381" t="n">
         <v>191</v>
       </c>
+      <c r="Y381" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -31538,6 +33892,12 @@
       <c r="W382" t="n">
         <v>154</v>
       </c>
+      <c r="Y382" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA382" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -31619,6 +33979,12 @@
       <c r="W383" t="n">
         <v>154</v>
       </c>
+      <c r="Y383" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA383" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -31700,6 +34066,12 @@
       <c r="W384" t="n">
         <v>191</v>
       </c>
+      <c r="Y384" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA384" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -31781,6 +34153,12 @@
       <c r="W385" t="n">
         <v>191</v>
       </c>
+      <c r="Y385" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -31862,6 +34240,12 @@
       <c r="W386" t="n">
         <v>191</v>
       </c>
+      <c r="Y386" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -31943,6 +34327,12 @@
       <c r="W387" t="n">
         <v>191</v>
       </c>
+      <c r="Y387" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA387" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -32024,6 +34414,12 @@
       <c r="W388" t="n">
         <v>154</v>
       </c>
+      <c r="Y388" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA388" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -32105,6 +34501,12 @@
       <c r="W389" t="n">
         <v>191</v>
       </c>
+      <c r="Y389" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA389" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -32186,6 +34588,12 @@
       <c r="W390" t="n">
         <v>154</v>
       </c>
+      <c r="Y390" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA390" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -32267,6 +34675,12 @@
       <c r="W391" t="n">
         <v>191</v>
       </c>
+      <c r="Y391" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -32348,6 +34762,12 @@
       <c r="W392" t="n">
         <v>154</v>
       </c>
+      <c r="Y392" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -32429,6 +34849,12 @@
       <c r="W393" t="n">
         <v>154</v>
       </c>
+      <c r="Y393" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -32510,6 +34936,12 @@
       <c r="W394" t="n">
         <v>191</v>
       </c>
+      <c r="Y394" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -32591,6 +35023,12 @@
       <c r="W395" t="n">
         <v>191</v>
       </c>
+      <c r="Y395" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA395" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -32672,6 +35110,12 @@
       <c r="W396" t="n">
         <v>191</v>
       </c>
+      <c r="Y396" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA396" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -32753,6 +35197,12 @@
       <c r="W397" t="n">
         <v>191</v>
       </c>
+      <c r="Y397" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA397" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -32834,6 +35284,12 @@
       <c r="W398" t="n">
         <v>154</v>
       </c>
+      <c r="Y398" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -32915,6 +35371,12 @@
       <c r="W399" t="n">
         <v>191</v>
       </c>
+      <c r="Y399" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -32996,6 +35458,12 @@
       <c r="W400" t="n">
         <v>154</v>
       </c>
+      <c r="Y400" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -33077,6 +35545,12 @@
       <c r="W401" t="n">
         <v>191</v>
       </c>
+      <c r="Y401" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA401" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -33158,6 +35632,12 @@
       <c r="W402" t="n">
         <v>154</v>
       </c>
+      <c r="Y402" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA402" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -33239,6 +35719,12 @@
       <c r="W403" t="n">
         <v>154</v>
       </c>
+      <c r="Y403" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -33320,6 +35806,12 @@
       <c r="W404" t="n">
         <v>191</v>
       </c>
+      <c r="Y404" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -33401,6 +35893,12 @@
       <c r="W405" t="n">
         <v>191</v>
       </c>
+      <c r="Y405" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA405" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -33482,6 +35980,12 @@
       <c r="W406" t="n">
         <v>191</v>
       </c>
+      <c r="Y406" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA406" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -33563,6 +36067,12 @@
       <c r="W407" t="n">
         <v>191</v>
       </c>
+      <c r="Y407" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA407" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -33644,6 +36154,12 @@
       <c r="W408" t="n">
         <v>154</v>
       </c>
+      <c r="Y408" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA408" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -33725,6 +36241,12 @@
       <c r="W409" t="n">
         <v>191</v>
       </c>
+      <c r="Y409" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA409" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -33806,6 +36328,12 @@
       <c r="W410" t="n">
         <v>154</v>
       </c>
+      <c r="Y410" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA410" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -33887,6 +36415,12 @@
       <c r="W411" t="n">
         <v>191</v>
       </c>
+      <c r="Y411" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA411" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -33968,6 +36502,12 @@
       <c r="W412" t="n">
         <v>154</v>
       </c>
+      <c r="Y412" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA412" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -34049,6 +36589,12 @@
       <c r="W413" t="n">
         <v>191</v>
       </c>
+      <c r="Y413" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA413" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -34130,6 +36676,12 @@
       <c r="W414" t="n">
         <v>154</v>
       </c>
+      <c r="Y414" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA414" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -34211,6 +36763,12 @@
       <c r="W415" t="n">
         <v>191</v>
       </c>
+      <c r="Y415" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA415" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -34292,6 +36850,12 @@
       <c r="W416" t="n">
         <v>154</v>
       </c>
+      <c r="Y416" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA416" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -34373,6 +36937,12 @@
       <c r="W417" t="n">
         <v>154</v>
       </c>
+      <c r="Y417" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA417" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -34454,6 +37024,12 @@
       <c r="W418" t="n">
         <v>191</v>
       </c>
+      <c r="Y418" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA418" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -34535,6 +37111,12 @@
       <c r="W419" t="n">
         <v>191</v>
       </c>
+      <c r="Y419" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA419" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -34616,6 +37198,12 @@
       <c r="W420" t="n">
         <v>191</v>
       </c>
+      <c r="Y420" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA420" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -34697,6 +37285,12 @@
       <c r="W421" t="n">
         <v>191</v>
       </c>
+      <c r="Y421" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA421" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -34778,6 +37372,12 @@
       <c r="W422" t="n">
         <v>191</v>
       </c>
+      <c r="Y422" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA422" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -34859,6 +37459,12 @@
       <c r="W423" t="n">
         <v>191</v>
       </c>
+      <c r="Y423" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA423" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -34940,6 +37546,12 @@
       <c r="W424" t="n">
         <v>151</v>
       </c>
+      <c r="Y424" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -35021,6 +37633,12 @@
       <c r="W425" t="n">
         <v>191</v>
       </c>
+      <c r="Y425" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA425" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -35102,6 +37720,12 @@
       <c r="W426" t="n">
         <v>191</v>
       </c>
+      <c r="Y426" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA426" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -35183,6 +37807,12 @@
       <c r="W427" t="n">
         <v>191</v>
       </c>
+      <c r="Y427" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA427" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -35264,6 +37894,12 @@
       <c r="W428" t="n">
         <v>191</v>
       </c>
+      <c r="Y428" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA428" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -35345,6 +37981,12 @@
       <c r="W429" t="n">
         <v>191</v>
       </c>
+      <c r="Y429" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA429" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -35426,6 +38068,12 @@
       <c r="W430" t="n">
         <v>191</v>
       </c>
+      <c r="Y430" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA430" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -35507,6 +38155,12 @@
       <c r="W431" t="n">
         <v>191</v>
       </c>
+      <c r="Y431" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA431" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -35588,6 +38242,12 @@
       <c r="W432" t="n">
         <v>154</v>
       </c>
+      <c r="Y432" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA432" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -35669,6 +38329,12 @@
       <c r="W433" t="n">
         <v>154</v>
       </c>
+      <c r="Y433" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA433" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -35750,6 +38416,12 @@
       <c r="W434" t="n">
         <v>191</v>
       </c>
+      <c r="Y434" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA434" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -35831,6 +38503,12 @@
       <c r="W435" t="n">
         <v>191</v>
       </c>
+      <c r="Y435" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA435" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -35912,6 +38590,12 @@
       <c r="W436" t="n">
         <v>191</v>
       </c>
+      <c r="Y436" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA436" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -35993,6 +38677,12 @@
       <c r="W437" t="n">
         <v>191</v>
       </c>
+      <c r="Y437" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA437" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -36074,6 +38764,12 @@
       <c r="W438" t="n">
         <v>191</v>
       </c>
+      <c r="Y438" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA438" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -36155,6 +38851,12 @@
       <c r="W439" t="n">
         <v>191</v>
       </c>
+      <c r="Y439" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA439" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -36236,6 +38938,12 @@
       <c r="W440" t="n">
         <v>191</v>
       </c>
+      <c r="Y440" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA440" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -36317,6 +39025,12 @@
       <c r="W441" t="n">
         <v>191</v>
       </c>
+      <c r="Y441" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA441" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -36398,6 +39112,12 @@
       <c r="W442" t="n">
         <v>191</v>
       </c>
+      <c r="Y442" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA442" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -36479,6 +39199,12 @@
       <c r="W443" t="n">
         <v>151</v>
       </c>
+      <c r="Y443" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA443" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -36560,6 +39286,12 @@
       <c r="W444" t="n">
         <v>151</v>
       </c>
+      <c r="Y444" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA444" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -36641,6 +39373,12 @@
       <c r="W445" t="n">
         <v>154</v>
       </c>
+      <c r="Y445" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA445" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -36722,6 +39460,12 @@
       <c r="W446" t="n">
         <v>154</v>
       </c>
+      <c r="Y446" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA446" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -36803,6 +39547,12 @@
       <c r="W447" t="n">
         <v>191</v>
       </c>
+      <c r="Y447" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA447" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -36884,6 +39634,12 @@
       <c r="W448" t="n">
         <v>191</v>
       </c>
+      <c r="Y448" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA448" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -36965,6 +39721,12 @@
       <c r="W449" t="n">
         <v>191</v>
       </c>
+      <c r="Y449" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA449" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -37046,6 +39808,12 @@
       <c r="W450" t="n">
         <v>191</v>
       </c>
+      <c r="Y450" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA450" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -37127,6 +39895,12 @@
       <c r="W451" t="n">
         <v>191</v>
       </c>
+      <c r="Y451" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA451" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -37208,6 +39982,12 @@
       <c r="W452" t="n">
         <v>191</v>
       </c>
+      <c r="Y452" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA452" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -37289,6 +40069,12 @@
       <c r="W453" t="n">
         <v>151</v>
       </c>
+      <c r="Y453" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA453" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -37370,6 +40156,12 @@
       <c r="W454" t="n">
         <v>151</v>
       </c>
+      <c r="Y454" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA454" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -37451,6 +40243,12 @@
       <c r="W455" t="n">
         <v>191</v>
       </c>
+      <c r="Y455" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA455" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -37532,6 +40330,12 @@
       <c r="W456" t="n">
         <v>191</v>
       </c>
+      <c r="Y456" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA456" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -37613,6 +40417,12 @@
       <c r="W457" t="n">
         <v>191</v>
       </c>
+      <c r="Y457" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA457" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -37694,6 +40504,12 @@
       <c r="W458" t="n">
         <v>191</v>
       </c>
+      <c r="Y458" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA458" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -37775,6 +40591,12 @@
       <c r="W459" t="n">
         <v>191</v>
       </c>
+      <c r="Y459" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA459" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -37856,6 +40678,12 @@
       <c r="W460" t="n">
         <v>191</v>
       </c>
+      <c r="Y460" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA460" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -37937,6 +40765,12 @@
       <c r="W461" t="n">
         <v>191</v>
       </c>
+      <c r="Y461" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA461" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -38018,6 +40852,12 @@
       <c r="W462" t="n">
         <v>191</v>
       </c>
+      <c r="Y462" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA462" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -38099,6 +40939,12 @@
       <c r="W463" t="n">
         <v>154</v>
       </c>
+      <c r="Y463" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA463" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -38180,6 +41026,12 @@
       <c r="W464" t="n">
         <v>191</v>
       </c>
+      <c r="Y464" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA464" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -38261,6 +41113,12 @@
       <c r="W465" t="n">
         <v>154</v>
       </c>
+      <c r="Y465" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA465" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -38342,6 +41200,12 @@
       <c r="W466" t="n">
         <v>191</v>
       </c>
+      <c r="Y466" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA466" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -38423,6 +41287,12 @@
       <c r="W467" t="n">
         <v>154</v>
       </c>
+      <c r="Y467" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA467" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -38504,6 +41374,12 @@
       <c r="W468" t="n">
         <v>154</v>
       </c>
+      <c r="Y468" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA468" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -38585,6 +41461,12 @@
       <c r="W469" t="n">
         <v>191</v>
       </c>
+      <c r="Y469" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA469" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -38666,6 +41548,12 @@
       <c r="W470" t="n">
         <v>191</v>
       </c>
+      <c r="Y470" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA470" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -38747,6 +41635,12 @@
       <c r="W471" t="n">
         <v>191</v>
       </c>
+      <c r="Y471" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA471" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -38828,6 +41722,12 @@
       <c r="W472" t="n">
         <v>191</v>
       </c>
+      <c r="Y472" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA472" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -38909,6 +41809,12 @@
       <c r="W473" t="n">
         <v>154</v>
       </c>
+      <c r="Y473" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA473" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -38990,6 +41896,12 @@
       <c r="W474" t="n">
         <v>154</v>
       </c>
+      <c r="Y474" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA474" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -39071,6 +41983,12 @@
       <c r="W475" t="n">
         <v>191</v>
       </c>
+      <c r="Y475" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA475" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -39152,6 +42070,12 @@
       <c r="W476" t="n">
         <v>191</v>
       </c>
+      <c r="Y476" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA476" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -39233,6 +42157,12 @@
       <c r="W477" t="n">
         <v>191</v>
       </c>
+      <c r="Y477" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA477" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -39314,6 +42244,12 @@
       <c r="W478" t="n">
         <v>191</v>
       </c>
+      <c r="Y478" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA478" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -39395,6 +42331,12 @@
       <c r="W479" t="n">
         <v>154</v>
       </c>
+      <c r="Y479" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA479" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -39476,6 +42418,12 @@
       <c r="W480" t="n">
         <v>191</v>
       </c>
+      <c r="Y480" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA480" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -39557,6 +42505,12 @@
       <c r="W481" t="n">
         <v>154</v>
       </c>
+      <c r="Y481" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA481" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -39638,6 +42592,12 @@
       <c r="W482" t="n">
         <v>191</v>
       </c>
+      <c r="Y482" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA482" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -39719,6 +42679,12 @@
       <c r="W483" t="n">
         <v>191</v>
       </c>
+      <c r="Y483" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA483" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -39800,6 +42766,12 @@
       <c r="W484" t="n">
         <v>191</v>
       </c>
+      <c r="Y484" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA484" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -39881,6 +42853,12 @@
       <c r="W485" t="n">
         <v>154</v>
       </c>
+      <c r="Y485" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA485" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -39962,6 +42940,12 @@
       <c r="W486" t="n">
         <v>154</v>
       </c>
+      <c r="Y486" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA486" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -40043,6 +43027,12 @@
       <c r="W487" t="n">
         <v>191</v>
       </c>
+      <c r="Y487" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA487" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -40124,6 +43114,12 @@
       <c r="W488" t="n">
         <v>191</v>
       </c>
+      <c r="Y488" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA488" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -40205,6 +43201,12 @@
       <c r="W489" t="n">
         <v>191</v>
       </c>
+      <c r="Y489" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA489" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -40286,6 +43288,12 @@
       <c r="W490" t="n">
         <v>191</v>
       </c>
+      <c r="Y490" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA490" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -40367,6 +43375,12 @@
       <c r="W491" t="n">
         <v>191</v>
       </c>
+      <c r="Y491" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA491" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -40448,6 +43462,12 @@
       <c r="W492" t="n">
         <v>191</v>
       </c>
+      <c r="Y492" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA492" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -40529,6 +43549,12 @@
       <c r="W493" t="n">
         <v>191</v>
       </c>
+      <c r="Y493" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA493" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -40610,6 +43636,12 @@
       <c r="W494" t="n">
         <v>191</v>
       </c>
+      <c r="Y494" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA494" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -40691,6 +43723,12 @@
       <c r="W495" t="n">
         <v>154</v>
       </c>
+      <c r="Y495" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA495" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -40772,6 +43810,12 @@
       <c r="W496" t="n">
         <v>191</v>
       </c>
+      <c r="Y496" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA496" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -40853,6 +43897,12 @@
       <c r="W497" t="n">
         <v>154</v>
       </c>
+      <c r="Y497" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA497" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -40934,6 +43984,12 @@
       <c r="W498" t="n">
         <v>191</v>
       </c>
+      <c r="Y498" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA498" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -41015,6 +44071,12 @@
       <c r="W499" t="n">
         <v>191</v>
       </c>
+      <c r="Y499" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA499" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -41096,6 +44158,12 @@
       <c r="W500" t="n">
         <v>191</v>
       </c>
+      <c r="Y500" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA500" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -41177,6 +44245,12 @@
       <c r="W501" t="n">
         <v>151</v>
       </c>
+      <c r="Y501" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA501" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -41258,6 +44332,12 @@
       <c r="W502" t="n">
         <v>154</v>
       </c>
+      <c r="Y502" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA502" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -41339,6 +44419,12 @@
       <c r="W503" t="n">
         <v>191</v>
       </c>
+      <c r="Y503" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA503" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -41420,6 +44506,12 @@
       <c r="W504" t="n">
         <v>154</v>
       </c>
+      <c r="Y504" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA504" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -41501,6 +44593,12 @@
       <c r="W505" t="n">
         <v>191</v>
       </c>
+      <c r="Y505" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA505" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -41582,6 +44680,12 @@
       <c r="W506" t="n">
         <v>191</v>
       </c>
+      <c r="Y506" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA506" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -41663,6 +44767,12 @@
       <c r="W507" t="n">
         <v>191</v>
       </c>
+      <c r="Y507" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA507" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -41744,6 +44854,12 @@
       <c r="W508" t="n">
         <v>191</v>
       </c>
+      <c r="Y508" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA508" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -41825,6 +44941,12 @@
       <c r="W509" t="n">
         <v>191</v>
       </c>
+      <c r="Y509" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA509" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -41906,6 +45028,12 @@
       <c r="W510" t="n">
         <v>154</v>
       </c>
+      <c r="Y510" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA510" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -41987,6 +45115,12 @@
       <c r="W511" t="n">
         <v>191</v>
       </c>
+      <c r="Y511" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA511" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -42068,6 +45202,12 @@
       <c r="W512" t="n">
         <v>154</v>
       </c>
+      <c r="Y512" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA512" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -42149,6 +45289,12 @@
       <c r="W513" t="n">
         <v>191</v>
       </c>
+      <c r="Y513" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA513" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -42230,6 +45376,12 @@
       <c r="W514" t="n">
         <v>154</v>
       </c>
+      <c r="Y514" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA514" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -42311,6 +45463,12 @@
       <c r="W515" t="n">
         <v>154</v>
       </c>
+      <c r="Y515" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA515" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -42392,6 +45550,12 @@
       <c r="W516" t="n">
         <v>191</v>
       </c>
+      <c r="Y516" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA516" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -42473,6 +45637,12 @@
       <c r="W517" t="n">
         <v>191</v>
       </c>
+      <c r="Y517" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA517" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -42554,6 +45724,12 @@
       <c r="W518" t="n">
         <v>191</v>
       </c>
+      <c r="Y518" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA518" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -42635,6 +45811,12 @@
       <c r="W519" t="n">
         <v>191</v>
       </c>
+      <c r="Y519" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA519" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -42716,6 +45898,12 @@
       <c r="W520" t="n">
         <v>154</v>
       </c>
+      <c r="Y520" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA520" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -42797,6 +45985,12 @@
       <c r="W521" t="n">
         <v>191</v>
       </c>
+      <c r="Y521" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA521" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -42878,6 +46072,12 @@
       <c r="W522" t="n">
         <v>191</v>
       </c>
+      <c r="Y522" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA522" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -42959,6 +46159,12 @@
       <c r="W523" t="n">
         <v>191</v>
       </c>
+      <c r="Y523" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA523" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -43040,6 +46246,12 @@
       <c r="W524" t="n">
         <v>191</v>
       </c>
+      <c r="Y524" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA524" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -43121,6 +46333,12 @@
       <c r="W525" t="n">
         <v>191</v>
       </c>
+      <c r="Y525" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA525" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -43202,6 +46420,12 @@
       <c r="W526" t="n">
         <v>191</v>
       </c>
+      <c r="Y526" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA526" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -43283,6 +46507,12 @@
       <c r="W527" t="n">
         <v>191</v>
       </c>
+      <c r="Y527" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA527" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -43364,6 +46594,12 @@
       <c r="W528" t="n">
         <v>191</v>
       </c>
+      <c r="Y528" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA528" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -43445,6 +46681,12 @@
       <c r="W529" t="n">
         <v>191</v>
       </c>
+      <c r="Y529" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA529" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -43526,6 +46768,12 @@
       <c r="W530" t="n">
         <v>154</v>
       </c>
+      <c r="Y530" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA530" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -43607,6 +46855,12 @@
       <c r="W531" t="n">
         <v>191</v>
       </c>
+      <c r="Y531" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA531" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -43688,6 +46942,12 @@
       <c r="W532" t="n">
         <v>154</v>
       </c>
+      <c r="Y532" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA532" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -43769,6 +47029,12 @@
       <c r="W533" t="n">
         <v>154</v>
       </c>
+      <c r="Y533" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA533" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -43850,6 +47116,12 @@
       <c r="W534" t="n">
         <v>191</v>
       </c>
+      <c r="Y534" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA534" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -43931,6 +47203,12 @@
       <c r="W535" t="n">
         <v>191</v>
       </c>
+      <c r="Y535" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA535" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -44012,6 +47290,12 @@
       <c r="W536" t="n">
         <v>191</v>
       </c>
+      <c r="Y536" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA536" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -44093,6 +47377,12 @@
       <c r="W537" t="n">
         <v>191</v>
       </c>
+      <c r="Y537" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA537" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -44174,6 +47464,12 @@
       <c r="W538" t="n">
         <v>154</v>
       </c>
+      <c r="Y538" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA538" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -44255,6 +47551,12 @@
       <c r="W539" t="n">
         <v>191</v>
       </c>
+      <c r="Y539" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA539" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -44336,6 +47638,12 @@
       <c r="W540" t="n">
         <v>191</v>
       </c>
+      <c r="Y540" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA540" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -44426,6 +47734,18 @@
       <c r="X541" t="n">
         <v>150</v>
       </c>
+      <c r="Y541" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z541" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA541" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB541" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -44507,6 +47827,12 @@
       <c r="W542" t="n">
         <v>151</v>
       </c>
+      <c r="Y542" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA542" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -44588,6 +47914,12 @@
       <c r="W543" t="n">
         <v>191</v>
       </c>
+      <c r="Y543" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA543" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -44678,6 +48010,18 @@
       <c r="X544" t="n">
         <v>162</v>
       </c>
+      <c r="Y544" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z544" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA544" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB544" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -44759,6 +48103,12 @@
       <c r="W545" t="n">
         <v>191</v>
       </c>
+      <c r="Y545" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA545" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -44840,6 +48190,12 @@
       <c r="W546" t="n">
         <v>191</v>
       </c>
+      <c r="Y546" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA546" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -44921,6 +48277,12 @@
       <c r="W547" t="n">
         <v>191</v>
       </c>
+      <c r="Y547" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA547" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -45002,6 +48364,12 @@
       <c r="W548" t="n">
         <v>191</v>
       </c>
+      <c r="Y548" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA548" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -45083,6 +48451,12 @@
       <c r="W549" t="n">
         <v>191</v>
       </c>
+      <c r="Y549" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA549" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -45164,6 +48538,12 @@
       <c r="W550" t="n">
         <v>191</v>
       </c>
+      <c r="Y550" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA550" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -45245,6 +48625,12 @@
       <c r="W551" t="n">
         <v>151</v>
       </c>
+      <c r="Y551" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA551" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -45326,6 +48712,12 @@
       <c r="W552" t="n">
         <v>191</v>
       </c>
+      <c r="Y552" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA552" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -45407,6 +48799,12 @@
       <c r="W553" t="n">
         <v>154</v>
       </c>
+      <c r="Y553" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA553" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -45488,6 +48886,12 @@
       <c r="W554" t="n">
         <v>191</v>
       </c>
+      <c r="Y554" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA554" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -45569,6 +48973,12 @@
       <c r="W555" t="n">
         <v>154</v>
       </c>
+      <c r="Y555" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA555" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -45650,6 +49060,12 @@
       <c r="W556" t="n">
         <v>191</v>
       </c>
+      <c r="Y556" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA556" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -45731,6 +49147,12 @@
       <c r="W557" t="n">
         <v>154</v>
       </c>
+      <c r="Y557" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA557" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -45812,6 +49234,12 @@
       <c r="W558" t="n">
         <v>191</v>
       </c>
+      <c r="Y558" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA558" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -45893,6 +49321,12 @@
       <c r="W559" t="n">
         <v>154</v>
       </c>
+      <c r="Y559" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA559" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -45974,6 +49408,12 @@
       <c r="W560" t="n">
         <v>191</v>
       </c>
+      <c r="Y560" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA560" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -46055,6 +49495,12 @@
       <c r="W561" t="n">
         <v>191</v>
       </c>
+      <c r="Y561" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA561" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -46136,6 +49582,12 @@
       <c r="W562" t="n">
         <v>154</v>
       </c>
+      <c r="Y562" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA562" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -46217,6 +49669,12 @@
       <c r="W563" t="n">
         <v>191</v>
       </c>
+      <c r="Y563" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA563" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -46298,6 +49756,12 @@
       <c r="W564" t="n">
         <v>151</v>
       </c>
+      <c r="Y564" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA564" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -46379,6 +49843,12 @@
       <c r="W565" t="n">
         <v>154</v>
       </c>
+      <c r="Y565" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA565" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -46460,6 +49930,12 @@
       <c r="W566" t="n">
         <v>191</v>
       </c>
+      <c r="Y566" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA566" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -46541,6 +50017,12 @@
       <c r="W567" t="n">
         <v>191</v>
       </c>
+      <c r="Y567" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA567" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -46622,6 +50104,12 @@
       <c r="W568" t="n">
         <v>191</v>
       </c>
+      <c r="Y568" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA568" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -46703,6 +50191,12 @@
       <c r="W569" t="n">
         <v>151</v>
       </c>
+      <c r="Y569" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA569" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -46784,6 +50278,12 @@
       <c r="W570" t="n">
         <v>154</v>
       </c>
+      <c r="Y570" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA570" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -46865,6 +50365,12 @@
       <c r="W571" t="n">
         <v>191</v>
       </c>
+      <c r="Y571" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA571" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -46953,6 +50459,18 @@
         <v>162</v>
       </c>
       <c r="X572" t="n">
+        <v>162</v>
+      </c>
+      <c r="Y572" t="n">
+        <v>162</v>
+      </c>
+      <c r="Z572" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA572" t="n">
+        <v>162</v>
+      </c>
+      <c r="AB572" t="n">
         <v>162</v>
       </c>
     </row>
@@ -60643,7 +64161,7 @@
       </c>
       <c r="E667" s="8" t="inlineStr">
         <is>
-          <t>29/08/2024</t>
+          <t>30/08/2024</t>
         </is>
       </c>
     </row>
